--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c204_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c204_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -535,10 +547,10 @@
       <c r="I14">
         <f>((C14-C13)^2+(D14- D13)^2)^.5</f>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="n">
@@ -582,28 +594,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="2">
+      <c r="A16" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C16" t="s" s="2">
+      <c r="C16" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D16" t="s" s="2">
+      <c r="D16" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -628,28 +640,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="2">
+      <c r="I18" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1230,10 +1242,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="J38" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="K38" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1277,28 +1289,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="2">
+      <c r="A40" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1323,28 +1335,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="2">
+      <c r="C42" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="2">
+      <c r="D42" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="2">
+      <c r="I42" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1548,10 +1560,10 @@
       <c r="I49">
         <f>((C49-C48)^2+(D49- D48)^2)^.5</f>
       </c>
-      <c r="J49" s="2" t="s">
+      <c r="J49" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="K49" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L49" t="n">
@@ -1595,28 +1607,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="2">
+      <c r="A51" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C51" t="s" s="2">
+      <c r="C51" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D51" t="s" s="2">
+      <c r="D51" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1641,28 +1653,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C53" t="s" s="2">
+      <c r="C53" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D53" t="s" s="2">
+      <c r="D53" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I53" t="s" s="2">
+      <c r="I53" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1924,10 +1936,10 @@
       <c r="I62">
         <f>((C62-C61)^2+(D62- D61)^2)^.5</f>
       </c>
-      <c r="J62" s="2" t="s">
+      <c r="J62" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K62" s="2" t="s">
+      <c r="K62" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L62" t="n">
@@ -1971,28 +1983,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="2">
+      <c r="A64" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C64" t="s" s="2">
+      <c r="C64" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D64" t="s" s="2">
+      <c r="D64" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2017,28 +2029,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C66" t="s" s="2">
+      <c r="C66" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D66" t="s" s="2">
+      <c r="D66" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I66" t="s" s="2">
+      <c r="I66" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2416,10 +2428,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="2" t="s">
+      <c r="J79" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K79" s="2" t="s">
+      <c r="K79" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2463,28 +2475,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="2">
+      <c r="A81" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="2">
+      <c r="C81" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D81" t="s" s="2">
+      <c r="D81" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2509,28 +2521,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="2">
+      <c r="C83" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="2">
+      <c r="D83" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="2">
+      <c r="I83" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3053,10 +3065,10 @@
       <c r="I101">
         <f>((C101-C100)^2+(D101- D100)^2)^.5</f>
       </c>
-      <c r="J101" s="2" t="s">
+      <c r="J101" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K101" s="2" t="s">
+      <c r="K101" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L101" t="n">
@@ -3100,28 +3112,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s" s="2">
+      <c r="A103" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C103" t="s" s="2">
+      <c r="C103" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D103" t="s" s="2">
+      <c r="D103" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3146,28 +3158,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C105" t="s" s="2">
+      <c r="C105" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D105" t="s" s="2">
+      <c r="D105" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I105" t="s" s="2">
+      <c r="I105" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3690,10 +3702,10 @@
       <c r="I123">
         <f>((C123-C122)^2+(D123- D122)^2)^.5</f>
       </c>
-      <c r="J123" s="2" t="s">
+      <c r="J123" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K123" s="2" t="s">
+      <c r="K123" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L123" t="n">
@@ -3737,28 +3749,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="2">
+      <c r="A125" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C125" t="s" s="2">
+      <c r="C125" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D125" t="s" s="2">
+      <c r="D125" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3783,28 +3795,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="C127" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D127" t="s" s="2">
+      <c r="D127" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I127" t="s" s="2">
+      <c r="I127" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4037,10 +4049,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="2" t="s">
+      <c r="J135" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K135" s="2" t="s">
+      <c r="K135" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4084,28 +4096,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="2">
+      <c r="A137" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4130,28 +4142,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="C139" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="2">
+      <c r="D139" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="2">
+      <c r="I139" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4268,10 +4280,10 @@
       <c r="I143">
         <f>((C143-C142)^2+(D143- D142)^2)^.5</f>
       </c>
-      <c r="J143" s="2" t="s">
+      <c r="J143" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K143" s="2" t="s">
+      <c r="K143" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L143" t="n">
@@ -4315,28 +4327,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s" s="2">
+      <c r="A145" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C145" t="s" s="2">
+      <c r="C145" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D145" t="s" s="2">
+      <c r="D145" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4361,28 +4373,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C147" t="s" s="2">
+      <c r="C147" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D147" t="s" s="2">
+      <c r="D147" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I147" t="s" s="2">
+      <c r="I147" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4441,10 +4453,10 @@
       <c r="I149">
         <f>((C149-C148)^2+(D149- D148)^2)^.5</f>
       </c>
-      <c r="J149" s="2" t="s">
+      <c r="J149" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K149" s="2" t="s">
+      <c r="K149" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L149" t="n">
@@ -4488,28 +4500,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="s" s="2">
+      <c r="A151" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C151" t="s" s="2">
+      <c r="C151" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D151" t="s" s="2">
+      <c r="D151" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4534,28 +4546,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C153" t="s" s="2">
+      <c r="C153" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D153" t="s" s="2">
+      <c r="D153" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I153" t="s" s="2">
+      <c r="I153" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4643,10 +4655,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
+      <c r="J156" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K156" s="2" t="s">
+      <c r="K156" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
